--- a/code/result/result.xlsx
+++ b/code/result/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="392">
   <si>
     <t>LATENCY</t>
   </si>
@@ -46,1186 +46,1150 @@
     <t>LevelDB</t>
   </si>
   <si>
-    <t>99923</t>
-  </si>
-  <si>
-    <t>100077</t>
+    <t>100036</t>
+  </si>
+  <si>
+    <t>99964</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>21380950</t>
-  </si>
-  <si>
-    <t>32869650</t>
-  </si>
-  <si>
-    <t>64996650</t>
-  </si>
-  <si>
-    <t>190123</t>
-  </si>
-  <si>
-    <t>9877</t>
-  </si>
-  <si>
-    <t>33875300</t>
-  </si>
-  <si>
-    <t>105824850</t>
-  </si>
-  <si>
-    <t>135260150</t>
-  </si>
-  <si>
-    <t>189882</t>
-  </si>
-  <si>
-    <t>10118</t>
-  </si>
-  <si>
-    <t>28422900</t>
-  </si>
-  <si>
-    <t>104780750</t>
-  </si>
-  <si>
-    <t>134010600</t>
+    <t>16541600</t>
+  </si>
+  <si>
+    <t>31446100</t>
+  </si>
+  <si>
+    <t>49881150</t>
+  </si>
+  <si>
+    <t>189926</t>
+  </si>
+  <si>
+    <t>10074</t>
+  </si>
+  <si>
+    <t>35598550</t>
+  </si>
+  <si>
+    <t>101418600</t>
+  </si>
+  <si>
+    <t>135505800</t>
+  </si>
+  <si>
+    <t>189866</t>
+  </si>
+  <si>
+    <t>10134</t>
+  </si>
+  <si>
+    <t>35619500</t>
+  </si>
+  <si>
+    <t>101760500</t>
+  </si>
+  <si>
+    <t>135378800</t>
   </si>
   <si>
     <t>200000</t>
   </si>
   <si>
-    <t>36703250</t>
-  </si>
-  <si>
-    <t>149230550</t>
-  </si>
-  <si>
-    <t>192096650</t>
-  </si>
-  <si>
-    <t>99906</t>
-  </si>
-  <si>
-    <t>100094</t>
-  </si>
-  <si>
-    <t>21332550</t>
-  </si>
-  <si>
-    <t>32637550</t>
-  </si>
-  <si>
-    <t>65052150</t>
-  </si>
-  <si>
-    <t>190156</t>
-  </si>
-  <si>
-    <t>9844</t>
-  </si>
-  <si>
-    <t>830462</t>
-  </si>
-  <si>
-    <t>118973450</t>
-  </si>
-  <si>
-    <t>831082200</t>
-  </si>
-  <si>
-    <t>979273900</t>
-  </si>
-  <si>
-    <t>190192</t>
-  </si>
-  <si>
-    <t>9808</t>
-  </si>
-  <si>
-    <t>826449</t>
-  </si>
-  <si>
-    <t>120120500</t>
-  </si>
-  <si>
-    <t>829424900</t>
-  </si>
-  <si>
-    <t>984616200</t>
-  </si>
-  <si>
-    <t>99015</t>
-  </si>
-  <si>
-    <t>985</t>
-  </si>
-  <si>
-    <t>83230</t>
-  </si>
-  <si>
-    <t>36746650</t>
-  </si>
-  <si>
-    <t>69237300</t>
-  </si>
-  <si>
-    <t>104817100</t>
-  </si>
-  <si>
-    <t>98002</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>170114</t>
-  </si>
-  <si>
-    <t>53610550</t>
-  </si>
-  <si>
-    <t>140539200</t>
-  </si>
-  <si>
-    <t>190571350</t>
-  </si>
-  <si>
-    <t>99952</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>4127</t>
-  </si>
-  <si>
-    <t>6457600</t>
-  </si>
-  <si>
-    <t>4423150</t>
-  </si>
-  <si>
-    <t>28281000</t>
+    <t>49493500</t>
+  </si>
+  <si>
+    <t>156507450</t>
+  </si>
+  <si>
+    <t>214445150</t>
+  </si>
+  <si>
+    <t>100304</t>
+  </si>
+  <si>
+    <t>99696</t>
+  </si>
+  <si>
+    <t>16086950</t>
+  </si>
+  <si>
+    <t>31574600</t>
+  </si>
+  <si>
+    <t>50031100</t>
+  </si>
+  <si>
+    <t>189972</t>
+  </si>
+  <si>
+    <t>10028</t>
+  </si>
+  <si>
+    <t>844266</t>
+  </si>
+  <si>
+    <t>133437000</t>
+  </si>
+  <si>
+    <t>804601850</t>
+  </si>
+  <si>
+    <t>1041893400</t>
+  </si>
+  <si>
+    <t>190041</t>
+  </si>
+  <si>
+    <t>9959</t>
+  </si>
+  <si>
+    <t>843963</t>
+  </si>
+  <si>
+    <t>133223750</t>
+  </si>
+  <si>
+    <t>803825200</t>
+  </si>
+  <si>
+    <t>1040673350</t>
+  </si>
+  <si>
+    <t>99022</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>81859</t>
+  </si>
+  <si>
+    <t>96794550</t>
+  </si>
+  <si>
+    <t>64262550</t>
+  </si>
+  <si>
+    <t>91158550</t>
+  </si>
+  <si>
+    <t>98067</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>162505</t>
+  </si>
+  <si>
+    <t>196865550</t>
+  </si>
+  <si>
+    <t>126529800</t>
+  </si>
+  <si>
+    <t>171706850</t>
+  </si>
+  <si>
+    <t>149924</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>6222</t>
+  </si>
+  <si>
+    <t>15828050</t>
+  </si>
+  <si>
+    <t>6300650</t>
+  </si>
+  <si>
+    <t>23649350</t>
   </si>
   <si>
     <t>1000</t>
   </si>
   <si>
-    <t>85046</t>
-  </si>
-  <si>
-    <t>13501150</t>
-  </si>
-  <si>
-    <t>69746150</t>
-  </si>
-  <si>
-    <t>80913200</t>
-  </si>
-  <si>
-    <t>98983</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>86372</t>
-  </si>
-  <si>
-    <t>69090050</t>
-  </si>
-  <si>
-    <t>91486750</t>
-  </si>
-  <si>
-    <t>991522000</t>
-  </si>
-  <si>
-    <t>98033</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>166506</t>
-  </si>
-  <si>
-    <t>93053150</t>
-  </si>
-  <si>
-    <t>155938400</t>
-  </si>
-  <si>
-    <t>1018682600</t>
-  </si>
-  <si>
-    <t>99943</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>4877</t>
-  </si>
-  <si>
-    <t>28002350</t>
-  </si>
-  <si>
-    <t>24181300</t>
-  </si>
-  <si>
-    <t>908948800</t>
-  </si>
-  <si>
-    <t>98977</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>87151</t>
-  </si>
-  <si>
-    <t>31828650</t>
-  </si>
-  <si>
-    <t>151269600</t>
-  </si>
-  <si>
-    <t>186023200</t>
+    <t>84917</t>
+  </si>
+  <si>
+    <t>25470450</t>
+  </si>
+  <si>
+    <t>66043600</t>
+  </si>
+  <si>
+    <t>84446200</t>
+  </si>
+  <si>
+    <t>98984</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>86879</t>
+  </si>
+  <si>
+    <t>67976250</t>
+  </si>
+  <si>
+    <t>89371500</t>
+  </si>
+  <si>
+    <t>563633400</t>
+  </si>
+  <si>
+    <t>98042</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>165479</t>
+  </si>
+  <si>
+    <t>116419450</t>
+  </si>
+  <si>
+    <t>149418750</t>
+  </si>
+  <si>
+    <t>622942050</t>
+  </si>
+  <si>
+    <t>149911</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>6968</t>
+  </si>
+  <si>
+    <t>34001550</t>
+  </si>
+  <si>
+    <t>45094250</t>
+  </si>
+  <si>
+    <t>918454200</t>
+  </si>
+  <si>
+    <t>99037</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>82125</t>
+  </si>
+  <si>
+    <t>34188050</t>
+  </si>
+  <si>
+    <t>139639500</t>
+  </si>
+  <si>
+    <t>183740300</t>
   </si>
   <si>
     <t>ERASE_TIMES</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2945</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>27404</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>27677</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
     <t>104</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2718</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>2716</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>2717</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>2719</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>59048</t>
-  </si>
-  <si>
-    <t>676</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>55663</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>58674</t>
+    <t>54466</t>
   </si>
   <si>
     <t>READ_FILES</t>
   </si>
   <si>
-    <t>299650</t>
-  </si>
-  <si>
-    <t>431079</t>
-  </si>
-  <si>
-    <t>657000</t>
-  </si>
-  <si>
-    <t>516847</t>
-  </si>
-  <si>
-    <t>1383970</t>
-  </si>
-  <si>
-    <t>1402206</t>
-  </si>
-  <si>
-    <t>473850</t>
-  </si>
-  <si>
-    <t>1368920</t>
-  </si>
-  <si>
-    <t>1385038</t>
-  </si>
-  <si>
-    <t>619193</t>
-  </si>
-  <si>
-    <t>1965234</t>
-  </si>
-  <si>
-    <t>1993250</t>
-  </si>
-  <si>
-    <t>300830</t>
-  </si>
-  <si>
-    <t>427570</t>
-  </si>
-  <si>
-    <t>656488</t>
-  </si>
-  <si>
-    <t>2261743</t>
-  </si>
-  <si>
-    <t>11209954</t>
-  </si>
-  <si>
-    <t>10218312</t>
-  </si>
-  <si>
-    <t>2278765</t>
-  </si>
-  <si>
-    <t>11169966</t>
-  </si>
-  <si>
-    <t>10193914</t>
-  </si>
-  <si>
-    <t>379764</t>
-  </si>
-  <si>
-    <t>938215</t>
-  </si>
-  <si>
-    <t>1075627</t>
-  </si>
-  <si>
-    <t>664446</t>
-  </si>
-  <si>
-    <t>1904187</t>
-  </si>
-  <si>
-    <t>1978773</t>
-  </si>
-  <si>
-    <t>54355</t>
-  </si>
-  <si>
-    <t>60508</t>
-  </si>
-  <si>
-    <t>274265</t>
-  </si>
-  <si>
-    <t>222840</t>
-  </si>
-  <si>
-    <t>945904</t>
-  </si>
-  <si>
-    <t>840556</t>
-  </si>
-  <si>
-    <t>970633</t>
-  </si>
-  <si>
-    <t>1249174</t>
-  </si>
-  <si>
-    <t>9210127</t>
-  </si>
-  <si>
-    <t>1406368</t>
-  </si>
-  <si>
-    <t>2126933</t>
-  </si>
-  <si>
-    <t>9642339</t>
-  </si>
-  <si>
-    <t>378161</t>
-  </si>
-  <si>
-    <t>337790</t>
-  </si>
-  <si>
-    <t>8397620</t>
-  </si>
-  <si>
-    <t>554381</t>
-  </si>
-  <si>
-    <t>2011768</t>
-  </si>
-  <si>
-    <t>1923510</t>
+    <t>225815</t>
+  </si>
+  <si>
+    <t>428388</t>
+  </si>
+  <si>
+    <t>525105</t>
+  </si>
+  <si>
+    <t>533344</t>
+  </si>
+  <si>
+    <t>1389252</t>
+  </si>
+  <si>
+    <t>534100</t>
+  </si>
+  <si>
+    <t>1393064</t>
+  </si>
+  <si>
+    <t>753634</t>
+  </si>
+  <si>
+    <t>2155010</t>
+  </si>
+  <si>
+    <t>219828</t>
+  </si>
+  <si>
+    <t>430279</t>
+  </si>
+  <si>
+    <t>527228</t>
+  </si>
+  <si>
+    <t>2421462</t>
+  </si>
+  <si>
+    <t>11451876</t>
+  </si>
+  <si>
+    <t>11052072</t>
+  </si>
+  <si>
+    <t>2419843</t>
+  </si>
+  <si>
+    <t>11425342</t>
+  </si>
+  <si>
+    <t>11061510</t>
+  </si>
+  <si>
+    <t>420637</t>
+  </si>
+  <si>
+    <t>919174</t>
+  </si>
+  <si>
+    <t>995208</t>
+  </si>
+  <si>
+    <t>799076</t>
+  </si>
+  <si>
+    <t>1813747</t>
+  </si>
+  <si>
+    <t>1865078</t>
+  </si>
+  <si>
+    <t>65103</t>
+  </si>
+  <si>
+    <t>85737</t>
+  </si>
+  <si>
+    <t>199629</t>
+  </si>
+  <si>
+    <t>306980</t>
+  </si>
+  <si>
+    <t>948312</t>
+  </si>
+  <si>
+    <t>907416</t>
+  </si>
+  <si>
+    <t>691216</t>
+  </si>
+  <si>
+    <t>1226698</t>
+  </si>
+  <si>
+    <t>5489463</t>
+  </si>
+  <si>
+    <t>1171952</t>
+  </si>
+  <si>
+    <t>2089659</t>
+  </si>
+  <si>
+    <t>6128301</t>
+  </si>
+  <si>
+    <t>367515</t>
+  </si>
+  <si>
+    <t>558160</t>
+  </si>
+  <si>
+    <t>8617039</t>
+  </si>
+  <si>
+    <t>554740</t>
+  </si>
+  <si>
+    <t>1950520</t>
+  </si>
+  <si>
+    <t>1913516</t>
   </si>
   <si>
     <t>READ_SIZE</t>
   </si>
   <si>
-    <t>544254297</t>
-  </si>
-  <si>
-    <t>1644630913</t>
-  </si>
-  <si>
-    <t>3364771279</t>
-  </si>
-  <si>
-    <t>813295216</t>
-  </si>
-  <si>
-    <t>5501895152</t>
-  </si>
-  <si>
-    <t>10952978226</t>
-  </si>
-  <si>
-    <t>297395995</t>
-  </si>
-  <si>
-    <t>5432087173</t>
-  </si>
-  <si>
-    <t>10869929344</t>
-  </si>
-  <si>
-    <t>407735357</t>
-  </si>
-  <si>
-    <t>7798025420</t>
-  </si>
-  <si>
-    <t>15528127927</t>
-  </si>
-  <si>
-    <t>528725688</t>
-  </si>
-  <si>
-    <t>1646492868</t>
-  </si>
-  <si>
-    <t>3378306679</t>
-  </si>
-  <si>
-    <t>1964635828</t>
-  </si>
-  <si>
-    <t>42651809895</t>
-  </si>
-  <si>
-    <t>77592196516</t>
-  </si>
-  <si>
-    <t>1967915539</t>
-  </si>
-  <si>
-    <t>42980858494</t>
-  </si>
-  <si>
-    <t>78883668435</t>
-  </si>
-  <si>
-    <t>2879166122</t>
-  </si>
-  <si>
-    <t>3505146495</t>
-  </si>
-  <si>
-    <t>6425282033</t>
-  </si>
-  <si>
-    <t>3530986162</t>
-  </si>
-  <si>
-    <t>7257165376</t>
-  </si>
-  <si>
-    <t>13191578056</t>
-  </si>
-  <si>
-    <t>490202176</t>
-  </si>
-  <si>
-    <t>177869964</t>
-  </si>
-  <si>
-    <t>403743162</t>
-  </si>
-  <si>
-    <t>437080396</t>
-  </si>
-  <si>
-    <t>3600501727</t>
-  </si>
-  <si>
-    <t>6437302913</t>
-  </si>
-  <si>
-    <t>1710613340</t>
-  </si>
-  <si>
-    <t>3725646925</t>
-  </si>
-  <si>
-    <t>10629227890</t>
-  </si>
-  <si>
-    <t>1482894449</t>
-  </si>
-  <si>
-    <t>7095134747</t>
-  </si>
-  <si>
-    <t>16371252243</t>
-  </si>
-  <si>
-    <t>292459114</t>
-  </si>
-  <si>
-    <t>249911407</t>
-  </si>
-  <si>
-    <t>4340215119</t>
-  </si>
-  <si>
-    <t>391399848</t>
-  </si>
-  <si>
-    <t>7816445757</t>
-  </si>
-  <si>
-    <t>14990333867</t>
+    <t>476152265</t>
+  </si>
+  <si>
+    <t>1246735110</t>
+  </si>
+  <si>
+    <t>3359550555</t>
+  </si>
+  <si>
+    <t>937068458</t>
+  </si>
+  <si>
+    <t>4117117378</t>
+  </si>
+  <si>
+    <t>11011216326</t>
+  </si>
+  <si>
+    <t>941675728</t>
+  </si>
+  <si>
+    <t>4132990391</t>
+  </si>
+  <si>
+    <t>10960768289</t>
+  </si>
+  <si>
+    <t>1320218179</t>
+  </si>
+  <si>
+    <t>6339309922</t>
+  </si>
+  <si>
+    <t>17845715880</t>
+  </si>
+  <si>
+    <t>473032950</t>
+  </si>
+  <si>
+    <t>1252367930</t>
+  </si>
+  <si>
+    <t>3366369253</t>
+  </si>
+  <si>
+    <t>6470862395</t>
+  </si>
+  <si>
+    <t>36306427748</t>
+  </si>
+  <si>
+    <t>81227434880</t>
+  </si>
+  <si>
+    <t>6476523308</t>
+  </si>
+  <si>
+    <t>36216147420</t>
+  </si>
+  <si>
+    <t>81044123470</t>
+  </si>
+  <si>
+    <t>12733112416</t>
+  </si>
+  <si>
+    <t>2940518524</t>
+  </si>
+  <si>
+    <t>6312568911</t>
+  </si>
+  <si>
+    <t>26456796639</t>
+  </si>
+  <si>
+    <t>5786801798</t>
+  </si>
+  <si>
+    <t>12424301040</t>
+  </si>
+  <si>
+    <t>1923665124</t>
+  </si>
+  <si>
+    <t>229430122</t>
+  </si>
+  <si>
+    <t>564276757</t>
+  </si>
+  <si>
+    <t>2055456376</t>
+  </si>
+  <si>
+    <t>3025567153</t>
+  </si>
+  <si>
+    <t>6468210700</t>
+  </si>
+  <si>
+    <t>4545712666</t>
+  </si>
+  <si>
+    <t>3254934179</t>
+  </si>
+  <si>
+    <t>10498768307</t>
+  </si>
+  <si>
+    <t>8803095164</t>
+  </si>
+  <si>
+    <t>5961419645</t>
+  </si>
+  <si>
+    <t>16168622222</t>
+  </si>
+  <si>
+    <t>583782823</t>
+  </si>
+  <si>
+    <t>490661281</t>
+  </si>
+  <si>
+    <t>7711773879</t>
+  </si>
+  <si>
+    <t>1177443561</t>
+  </si>
+  <si>
+    <t>6022929561</t>
+  </si>
+  <si>
+    <t>14643078988</t>
   </si>
   <si>
     <t>WRITE_FILES</t>
   </si>
   <si>
-    <t>161934</t>
-  </si>
-  <si>
-    <t>15709</t>
-  </si>
-  <si>
-    <t>244894</t>
-  </si>
-  <si>
-    <t>99314</t>
-  </si>
-  <si>
-    <t>103626</t>
-  </si>
-  <si>
-    <t>99381</t>
-  </si>
-  <si>
-    <t>163666</t>
-  </si>
-  <si>
-    <t>15673</t>
-  </si>
-  <si>
-    <t>246365</t>
-  </si>
-  <si>
-    <t>89528</t>
-  </si>
-  <si>
-    <t>93794</t>
-  </si>
-  <si>
-    <t>79935</t>
-  </si>
-  <si>
-    <t>15739</t>
-  </si>
-  <si>
-    <t>244673</t>
-  </si>
-  <si>
-    <t>92879</t>
-  </si>
-  <si>
-    <t>15956</t>
-  </si>
-  <si>
-    <t>249200</t>
-  </si>
-  <si>
-    <t>41556</t>
-  </si>
-  <si>
-    <t>15754</t>
-  </si>
-  <si>
-    <t>246937</t>
-  </si>
-  <si>
-    <t>30102</t>
-  </si>
-  <si>
-    <t>689320</t>
-  </si>
-  <si>
-    <t>294098</t>
-  </si>
-  <si>
-    <t>8597020</t>
-  </si>
-  <si>
-    <t>987655</t>
-  </si>
-  <si>
-    <t>279875</t>
-  </si>
-  <si>
-    <t>8230749</t>
-  </si>
-  <si>
-    <t>363839</t>
-  </si>
-  <si>
-    <t>292422</t>
-  </si>
-  <si>
-    <t>8598165</t>
-  </si>
-  <si>
-    <t>98025</t>
+    <t>52611</t>
+  </si>
+  <si>
+    <t>9953</t>
+  </si>
+  <si>
+    <t>103304</t>
+  </si>
+  <si>
+    <t>41780</t>
+  </si>
+  <si>
+    <t>38966</t>
+  </si>
+  <si>
+    <t>35540</t>
+  </si>
+  <si>
+    <t>46722</t>
+  </si>
+  <si>
+    <t>9871</t>
+  </si>
+  <si>
+    <t>103449</t>
+  </si>
+  <si>
+    <t>31051</t>
+  </si>
+  <si>
+    <t>36597</t>
+  </si>
+  <si>
+    <t>14842</t>
+  </si>
+  <si>
+    <t>9958</t>
+  </si>
+  <si>
+    <t>102498</t>
+  </si>
+  <si>
+    <t>22111</t>
+  </si>
+  <si>
+    <t>9954</t>
+  </si>
+  <si>
+    <t>103405</t>
+  </si>
+  <si>
+    <t>25956</t>
+  </si>
+  <si>
+    <t>17704</t>
+  </si>
+  <si>
+    <t>133740</t>
+  </si>
+  <si>
+    <t>5235</t>
+  </si>
+  <si>
+    <t>190863</t>
+  </si>
+  <si>
+    <t>262119</t>
+  </si>
+  <si>
+    <t>4697833</t>
+  </si>
+  <si>
+    <t>189598</t>
+  </si>
+  <si>
+    <t>252169</t>
+  </si>
+  <si>
+    <t>4492572</t>
+  </si>
+  <si>
+    <t>340564</t>
+  </si>
+  <si>
+    <t>492354</t>
+  </si>
+  <si>
+    <t>8746880</t>
+  </si>
+  <si>
+    <t>34911</t>
   </si>
   <si>
     <t>WRITE_SIZE</t>
   </si>
   <si>
-    <t>40348075</t>
-  </si>
-  <si>
-    <t>2547799</t>
-  </si>
-  <si>
-    <t>90486674</t>
-  </si>
-  <si>
-    <t>24619475</t>
-  </si>
-  <si>
-    <t>24629294</t>
-  </si>
-  <si>
-    <t>40766969</t>
-  </si>
-  <si>
-    <t>2540760</t>
-  </si>
-  <si>
-    <t>91237594</t>
-  </si>
-  <si>
-    <t>22239569</t>
-  </si>
-  <si>
-    <t>23285518</t>
-  </si>
-  <si>
-    <t>19774050</t>
-  </si>
-  <si>
-    <t>2552326</t>
-  </si>
-  <si>
-    <t>90317002</t>
-  </si>
-  <si>
-    <t>23091822</t>
-  </si>
-  <si>
-    <t>2588952</t>
-  </si>
-  <si>
-    <t>91194671</t>
-  </si>
-  <si>
-    <t>10317788</t>
-  </si>
-  <si>
-    <t>2554756</t>
-  </si>
-  <si>
-    <t>91211654</t>
-  </si>
-  <si>
-    <t>7589801</t>
-  </si>
-  <si>
-    <t>167437439</t>
-  </si>
-  <si>
-    <t>45889873</t>
-  </si>
-  <si>
-    <t>4089433893</t>
-  </si>
-  <si>
-    <t>239895099</t>
-  </si>
-  <si>
-    <t>43681480</t>
-  </si>
-  <si>
-    <t>3916206517</t>
-  </si>
-  <si>
-    <t>88593638</t>
-  </si>
-  <si>
-    <t>45630911</t>
-  </si>
-  <si>
-    <t>4089945679</t>
-  </si>
-  <si>
-    <t>24306409</t>
+    <t>42354081</t>
+  </si>
+  <si>
+    <t>5108350</t>
+  </si>
+  <si>
+    <t>82670626</t>
+  </si>
+  <si>
+    <t>33366819</t>
+  </si>
+  <si>
+    <t>31190819</t>
+  </si>
+  <si>
+    <t>28529570</t>
+  </si>
+  <si>
+    <t>37736626</t>
+  </si>
+  <si>
+    <t>5059328</t>
+  </si>
+  <si>
+    <t>83171484</t>
+  </si>
+  <si>
+    <t>25058288</t>
+  </si>
+  <si>
+    <t>29348410</t>
+  </si>
+  <si>
+    <t>11977515</t>
+  </si>
+  <si>
+    <t>5109703</t>
+  </si>
+  <si>
+    <t>82137502</t>
+  </si>
+  <si>
+    <t>17623885</t>
+  </si>
+  <si>
+    <t>5107301</t>
+  </si>
+  <si>
+    <t>82794149</t>
+  </si>
+  <si>
+    <t>20921246</t>
+  </si>
+  <si>
+    <t>9161842</t>
+  </si>
+  <si>
+    <t>98860159</t>
+  </si>
+  <si>
+    <t>4217973</t>
+  </si>
+  <si>
+    <t>146970939</t>
+  </si>
+  <si>
+    <t>131024544</t>
+  </si>
+  <si>
+    <t>3952676957</t>
+  </si>
+  <si>
+    <t>146002909</t>
+  </si>
+  <si>
+    <t>126050323</t>
+  </si>
+  <si>
+    <t>3780472405</t>
+  </si>
+  <si>
+    <t>261653869</t>
+  </si>
+  <si>
+    <t>245779238</t>
+  </si>
+  <si>
+    <t>7348172084</t>
+  </si>
+  <si>
+    <t>28028916</t>
   </si>
   <si>
     <t>MINOR_COMPACTION</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>MINOR_COMPACTION_SIZE</t>
+  </si>
+  <si>
+    <t>2732332</t>
+  </si>
+  <si>
+    <t>786391</t>
+  </si>
+  <si>
+    <t>6646458</t>
+  </si>
+  <si>
+    <t>180067</t>
+  </si>
+  <si>
+    <t>182684</t>
+  </si>
+  <si>
+    <t>2732087</t>
+  </si>
+  <si>
+    <t>763100</t>
+  </si>
+  <si>
+    <t>6638859</t>
+  </si>
+  <si>
+    <t>2731916</t>
+  </si>
+  <si>
+    <t>777915</t>
+  </si>
+  <si>
+    <t>6643809</t>
+  </si>
+  <si>
+    <t>2731576</t>
+  </si>
+  <si>
+    <t>784935</t>
+  </si>
+  <si>
+    <t>6645487</t>
+  </si>
+  <si>
+    <t>4505034</t>
+  </si>
+  <si>
+    <t>1728349</t>
+  </si>
+  <si>
+    <t>10112799</t>
+  </si>
+  <si>
+    <t>6146644</t>
+  </si>
+  <si>
+    <t>4044821</t>
+  </si>
+  <si>
+    <t>114069220</t>
+  </si>
+  <si>
+    <t>6087284</t>
+  </si>
+  <si>
+    <t>3927352</t>
+  </si>
+  <si>
+    <t>110809023</t>
+  </si>
+  <si>
+    <t>9302407</t>
+  </si>
+  <si>
+    <t>6029113</t>
+  </si>
+  <si>
+    <t>169471439</t>
+  </si>
+  <si>
+    <t>MAJOR_COMPACTION</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>63</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>MINOR_COMPACTION_SIZE</t>
-  </si>
-  <si>
-    <t>2874476</t>
-  </si>
-  <si>
-    <t>888852</t>
-  </si>
-  <si>
-    <t>7053244</t>
-  </si>
-  <si>
-    <t>64030</t>
-  </si>
-  <si>
-    <t>64065</t>
-  </si>
-  <si>
-    <t>2874461</t>
-  </si>
-  <si>
-    <t>884894</t>
-  </si>
-  <si>
-    <t>7049941</t>
-  </si>
-  <si>
-    <t>140735964643360</t>
-  </si>
-  <si>
-    <t>2874367</t>
-  </si>
-  <si>
-    <t>889889</t>
-  </si>
-  <si>
-    <t>7054148</t>
-  </si>
-  <si>
-    <t>2874246</t>
-  </si>
-  <si>
-    <t>913295</t>
-  </si>
-  <si>
-    <t>7074031</t>
-  </si>
-  <si>
-    <t>2874369</t>
-  </si>
-  <si>
-    <t>890790</t>
-  </si>
-  <si>
-    <t>7054750</t>
-  </si>
-  <si>
-    <t>6716293</t>
-  </si>
-  <si>
-    <t>4621419</t>
-  </si>
-  <si>
-    <t>114068411</t>
-  </si>
-  <si>
-    <t>6651306</t>
-  </si>
-  <si>
-    <t>4487496</t>
-  </si>
-  <si>
-    <t>110808995</t>
-  </si>
-  <si>
-    <t>6781254</t>
-  </si>
-  <si>
-    <t>4621140</t>
-  </si>
-  <si>
-    <t>114068347</t>
-  </si>
-  <si>
-    <t>MAJOR_COMPACTION</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>246</t>
+    <t>156</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>75</t>
+    <t>151</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>MAJOR_COMPACTION_SIZE</t>
   </si>
   <si>
-    <t>3969661</t>
-  </si>
-  <si>
-    <t>2378487</t>
-  </si>
-  <si>
-    <t>89069763</t>
-  </si>
-  <si>
-    <t>2261513</t>
-  </si>
-  <si>
-    <t>2362888</t>
-  </si>
-  <si>
-    <t>2354709</t>
-  </si>
-  <si>
-    <t>4049942</t>
-  </si>
-  <si>
-    <t>2370842</t>
-  </si>
-  <si>
-    <t>90043777</t>
-  </si>
-  <si>
-    <t>140735966972801</t>
-  </si>
-  <si>
-    <t>2349886</t>
-  </si>
-  <si>
-    <t>13373512</t>
-  </si>
-  <si>
-    <t>2378851</t>
-  </si>
-  <si>
-    <t>88815954</t>
-  </si>
-  <si>
-    <t>11873421</t>
-  </si>
-  <si>
-    <t>2413534</t>
-  </si>
-  <si>
-    <t>90128971</t>
-  </si>
-  <si>
-    <t>6802671</t>
-  </si>
-  <si>
-    <t>2383533</t>
-  </si>
-  <si>
-    <t>89992740</t>
-  </si>
-  <si>
-    <t>2018765</t>
-  </si>
-  <si>
-    <t>155453289</t>
-  </si>
-  <si>
-    <t>44495626</t>
-  </si>
-  <si>
-    <t>3972433510</t>
-  </si>
-  <si>
-    <t>225104682</t>
-  </si>
-  <si>
-    <t>42341249</t>
-  </si>
-  <si>
-    <t>3802548571</t>
-  </si>
-  <si>
-    <t>78244905</t>
-  </si>
-  <si>
-    <t>44237131</t>
-  </si>
-  <si>
-    <t>3972948922</t>
-  </si>
-  <si>
-    <t>2354738</t>
+    <t>5967948</t>
+  </si>
+  <si>
+    <t>4806723</t>
+  </si>
+  <si>
+    <t>82257703</t>
+  </si>
+  <si>
+    <t>4651172</t>
+  </si>
+  <si>
+    <t>4219528</t>
+  </si>
+  <si>
+    <t>4126775</t>
+  </si>
+  <si>
+    <t>5342036</t>
+  </si>
+  <si>
+    <t>4763141</t>
+  </si>
+  <si>
+    <t>82601220</t>
+  </si>
+  <si>
+    <t>4110803</t>
+  </si>
+  <si>
+    <t>4389614</t>
+  </si>
+  <si>
+    <t>8642010</t>
+  </si>
+  <si>
+    <t>4807048</t>
+  </si>
+  <si>
+    <t>81459095</t>
+  </si>
+  <si>
+    <t>14152145</t>
+  </si>
+  <si>
+    <t>4805171</t>
+  </si>
+  <si>
+    <t>82379551</t>
+  </si>
+  <si>
+    <t>15815775</t>
+  </si>
+  <si>
+    <t>8733319</t>
+  </si>
+  <si>
+    <t>98039452</t>
+  </si>
+  <si>
+    <t>3187924</t>
+  </si>
+  <si>
+    <t>133616623</t>
+  </si>
+  <si>
+    <t>126973359</t>
+  </si>
+  <si>
+    <t>3837842215</t>
+  </si>
+  <si>
+    <t>132578923</t>
+  </si>
+  <si>
+    <t>122116336</t>
+  </si>
+  <si>
+    <t>3668917584</t>
+  </si>
+  <si>
+    <t>241540626</t>
+  </si>
+  <si>
+    <t>239737538</t>
+  </si>
+  <si>
+    <t>7177557304</t>
+  </si>
+  <si>
+    <t>4234903</t>
   </si>
   <si>
     <t>AVERAGE_CHECK_TIMES</t>
   </si>
   <si>
-    <t>1.00979</t>
-  </si>
-  <si>
-    <t>4.27355</t>
-  </si>
-  <si>
-    <t>4.45588</t>
-  </si>
-  <si>
-    <t>1.00813</t>
-  </si>
-  <si>
-    <t>4.24711</t>
-  </si>
-  <si>
-    <t>4.38694</t>
-  </si>
-  <si>
-    <t>1.00185</t>
-  </si>
-  <si>
-    <t>4.22058</t>
-  </si>
-  <si>
-    <t>4.36892</t>
-  </si>
-  <si>
-    <t>1.00126</t>
-  </si>
-  <si>
-    <t>4.25207</t>
-  </si>
-  <si>
-    <t>4.38646</t>
-  </si>
-  <si>
-    <t>1.00895</t>
-  </si>
-  <si>
-    <t>4.25808</t>
-  </si>
-  <si>
-    <t>4.45779</t>
-  </si>
-  <si>
-    <t>1.00381</t>
-  </si>
-  <si>
-    <t>4.35411</t>
-  </si>
-  <si>
-    <t>4.41749</t>
-  </si>
-  <si>
-    <t>1.00409</t>
-  </si>
-  <si>
-    <t>4.00724</t>
-  </si>
-  <si>
-    <t>4.34098</t>
-  </si>
-  <si>
-    <t>1.80405</t>
-  </si>
-  <si>
-    <t>4.30928</t>
-  </si>
-  <si>
-    <t>4.49583</t>
-  </si>
-  <si>
-    <t>1.52665</t>
-  </si>
-  <si>
-    <t>4.34529</t>
-  </si>
-  <si>
-    <t>4.53846</t>
-  </si>
-  <si>
-    <t>2.58333</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>3.18182</t>
-  </si>
-  <si>
-    <t>1.0858</t>
-  </si>
-  <si>
-    <t>4.13274</t>
-  </si>
-  <si>
-    <t>4.45367</t>
-  </si>
-  <si>
-    <t>1.65714</t>
-  </si>
-  <si>
-    <t>4.48603</t>
-  </si>
-  <si>
-    <t>4.58582</t>
-  </si>
-  <si>
-    <t>1.27944</t>
-  </si>
-  <si>
-    <t>4.00615</t>
-  </si>
-  <si>
-    <t>4.46324</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>4.76923</t>
-  </si>
-  <si>
-    <t>4.87097</t>
-  </si>
-  <si>
-    <t>1.00235</t>
-  </si>
-  <si>
-    <t>4.26257</t>
-  </si>
-  <si>
-    <t>4.40604</t>
+    <t>1.04607</t>
+  </si>
+  <si>
+    <t>4.39782</t>
+  </si>
+  <si>
+    <t>4.44739</t>
+  </si>
+  <si>
+    <t>1.01016</t>
+  </si>
+  <si>
+    <t>4.36942</t>
+  </si>
+  <si>
+    <t>1.01012</t>
+  </si>
+  <si>
+    <t>4.36539</t>
+  </si>
+  <si>
+    <t>1.00248</t>
+  </si>
+  <si>
+    <t>4.42286</t>
+  </si>
+  <si>
+    <t>1.04729</t>
+  </si>
+  <si>
+    <t>4.39416</t>
+  </si>
+  <si>
+    <t>4.4447</t>
+  </si>
+  <si>
+    <t>1.00239</t>
+  </si>
+  <si>
+    <t>4.33067</t>
+  </si>
+  <si>
+    <t>1.00222</t>
+  </si>
+  <si>
+    <t>4.3533</t>
+  </si>
+  <si>
+    <t>4.355</t>
+  </si>
+  <si>
+    <t>2.29904</t>
+  </si>
+  <si>
+    <t>4.43019</t>
+  </si>
+  <si>
+    <t>4.49434</t>
+  </si>
+  <si>
+    <t>2.23702</t>
+  </si>
+  <si>
+    <t>4.30579</t>
+  </si>
+  <si>
+    <t>4.33471</t>
+  </si>
+  <si>
+    <t>2.33333</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.33333</t>
+  </si>
+  <si>
+    <t>1.76145</t>
+  </si>
+  <si>
+    <t>4.37519</t>
+  </si>
+  <si>
+    <t>4.37829</t>
+  </si>
+  <si>
+    <t>2.92486</t>
+  </si>
+  <si>
+    <t>4.65966</t>
+  </si>
+  <si>
+    <t>4.73805</t>
+  </si>
+  <si>
+    <t>2.879</t>
+  </si>
+  <si>
+    <t>4.49842</t>
+  </si>
+  <si>
+    <t>4.78669</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>4.775</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>1.00373</t>
+  </si>
+  <si>
+    <t>4.32178</t>
   </si>
 </sst>
 </file>
@@ -2092,7 +2056,7 @@
         <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2115,7 +2079,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -2144,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -2173,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -2202,13 +2166,13 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
         <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2231,7 +2195,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -2260,7 +2224,7 @@
         <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
@@ -2289,13 +2253,13 @@
         <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H28" t="s">
         <v>96</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2318,13 +2282,13 @@
         <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
         <v>96</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2347,13 +2311,13 @@
         <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2376,7 +2340,7 @@
         <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
@@ -2405,13 +2369,13 @@
         <v>72</v>
       </c>
       <c r="G32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" t="s">
         <v>110</v>
-      </c>
-      <c r="H32" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2434,13 +2398,13 @@
         <v>78</v>
       </c>
       <c r="G33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" t="s">
         <v>113</v>
-      </c>
-      <c r="H33" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2463,13 +2427,13 @@
         <v>84</v>
       </c>
       <c r="G34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" t="s">
         <v>116</v>
-      </c>
-      <c r="H34" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2492,7 +2456,7 @@
         <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2503,7 +2467,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2555,13 +2519,13 @@
         <v>12</v>
       </c>
       <c r="G39" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" t="s">
         <v>119</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>120</v>
-      </c>
-      <c r="I39" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2584,13 +2548,13 @@
         <v>12</v>
       </c>
       <c r="G40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" t="s">
         <v>122</v>
       </c>
-      <c r="H40" t="s">
-        <v>123</v>
-      </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2613,13 +2577,13 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2642,13 +2606,13 @@
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2671,13 +2635,13 @@
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2700,13 +2664,13 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2729,13 +2693,13 @@
         <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2758,13 +2722,13 @@
         <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2787,13 +2751,13 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2816,13 +2780,13 @@
         <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I48" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2845,13 +2809,13 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H49" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I49" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2874,13 +2838,13 @@
         <v>72</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2903,13 +2867,13 @@
         <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2932,13 +2896,13 @@
         <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H52" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2961,18 +2925,18 @@
         <v>90</v>
       </c>
       <c r="G53" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3024,13 +2988,13 @@
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H57" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I57" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3053,13 +3017,13 @@
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H58" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I58" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3082,13 +3046,13 @@
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H59" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I59" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3111,13 +3075,13 @@
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3140,13 +3104,13 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H61" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I61" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3169,13 +3133,13 @@
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3198,13 +3162,13 @@
         <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I63" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3227,13 +3191,13 @@
         <v>49</v>
       </c>
       <c r="G64" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H64" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I64" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3256,13 +3220,13 @@
         <v>55</v>
       </c>
       <c r="G65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I65" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3285,13 +3249,13 @@
         <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H66" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I66" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3314,13 +3278,13 @@
         <v>66</v>
       </c>
       <c r="G67" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H67" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I67" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3343,13 +3307,13 @@
         <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H68" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I68" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3372,13 +3336,13 @@
         <v>78</v>
       </c>
       <c r="G69" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H69" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I69" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3401,13 +3365,13 @@
         <v>84</v>
       </c>
       <c r="G70" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H70" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I70" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3430,18 +3394,18 @@
         <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H71" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I71" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3493,13 +3457,13 @@
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H75" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I75" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3522,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
@@ -3551,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
@@ -3580,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
@@ -3609,13 +3573,13 @@
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H79" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I79" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3638,7 +3602,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
@@ -3667,7 +3631,7 @@
         <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
@@ -3696,13 +3660,13 @@
         <v>49</v>
       </c>
       <c r="G82" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H82" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I82" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3725,13 +3689,13 @@
         <v>55</v>
       </c>
       <c r="G83" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H83" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I83" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3754,13 +3718,13 @@
         <v>61</v>
       </c>
       <c r="G84" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H84" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I84" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3783,7 +3747,7 @@
         <v>66</v>
       </c>
       <c r="G85" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
@@ -3812,13 +3776,13 @@
         <v>72</v>
       </c>
       <c r="G86" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H86" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I86" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3841,13 +3805,13 @@
         <v>78</v>
       </c>
       <c r="G87" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H87" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I87" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3870,13 +3834,13 @@
         <v>84</v>
       </c>
       <c r="G88" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H88" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I88" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3899,7 +3863,7 @@
         <v>90</v>
       </c>
       <c r="G89" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H89" t="s">
         <v>12</v>
@@ -3910,7 +3874,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3962,13 +3926,13 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H93" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I93" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3991,7 +3955,7 @@
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H94" t="s">
         <v>12</v>
@@ -4020,7 +3984,7 @@
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="H95" t="s">
         <v>12</v>
@@ -4049,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
@@ -4078,13 +4042,13 @@
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H97" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I97" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4107,7 +4071,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H98" t="s">
         <v>12</v>
@@ -4136,7 +4100,7 @@
         <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H99" t="s">
         <v>12</v>
@@ -4165,13 +4129,13 @@
         <v>49</v>
       </c>
       <c r="G100" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H100" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I100" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4194,13 +4158,13 @@
         <v>55</v>
       </c>
       <c r="G101" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H101" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I101" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4223,13 +4187,13 @@
         <v>61</v>
       </c>
       <c r="G102" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H102" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I102" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4252,7 +4216,7 @@
         <v>66</v>
       </c>
       <c r="G103" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H103" t="s">
         <v>12</v>
@@ -4281,13 +4245,13 @@
         <v>72</v>
       </c>
       <c r="G104" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H104" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I104" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4310,13 +4274,13 @@
         <v>78</v>
       </c>
       <c r="G105" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H105" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I105" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4339,13 +4303,13 @@
         <v>84</v>
       </c>
       <c r="G106" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H106" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I106" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4368,7 +4332,7 @@
         <v>90</v>
       </c>
       <c r="G107" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
@@ -4379,7 +4343,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4431,13 +4395,13 @@
         <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="H111" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I111" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4460,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H112" t="s">
         <v>12</v>
@@ -4489,7 +4453,7 @@
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
@@ -4547,13 +4511,13 @@
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="H115" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I115" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4634,13 +4598,13 @@
         <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="H118" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I118" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4663,13 +4627,13 @@
         <v>55</v>
       </c>
       <c r="G119" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="H119" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I119" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4692,13 +4656,13 @@
         <v>61</v>
       </c>
       <c r="G120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H120" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I120" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4750,13 +4714,13 @@
         <v>72</v>
       </c>
       <c r="G122" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H122" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I122" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4779,13 +4743,13 @@
         <v>78</v>
       </c>
       <c r="G123" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H123" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I123" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4808,13 +4772,13 @@
         <v>84</v>
       </c>
       <c r="G124" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H124" t="s">
-        <v>277</v>
+        <v>98</v>
       </c>
       <c r="I124" t="s">
-        <v>277</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4848,7 +4812,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4900,13 +4864,13 @@
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H129" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I129" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4929,7 +4893,7 @@
         <v>12</v>
       </c>
       <c r="G130" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H130" t="s">
         <v>12</v>
@@ -4958,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="G131" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H131" t="s">
         <v>12</v>
@@ -5016,13 +4980,13 @@
         <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H133" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I133" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5045,7 +5009,7 @@
         <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="H134" t="s">
         <v>12</v>
@@ -5103,13 +5067,13 @@
         <v>49</v>
       </c>
       <c r="G136" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H136" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I136" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5132,13 +5096,13 @@
         <v>55</v>
       </c>
       <c r="G137" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H137" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I137" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5161,13 +5125,13 @@
         <v>61</v>
       </c>
       <c r="G138" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H138" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I138" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5219,13 +5183,13 @@
         <v>72</v>
       </c>
       <c r="G140" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H140" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I140" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5248,13 +5212,13 @@
         <v>78</v>
       </c>
       <c r="G141" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H141" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I141" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5277,13 +5241,13 @@
         <v>84</v>
       </c>
       <c r="G142" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H142" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I142" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5317,7 +5281,7 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5369,13 +5333,13 @@
         <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c r="H147" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="I147" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5398,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H148" t="s">
         <v>12</v>
@@ -5427,7 +5391,7 @@
         <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H149" t="s">
         <v>12</v>
@@ -5456,7 +5420,7 @@
         <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="H150" t="s">
         <v>12</v>
@@ -5485,13 +5449,13 @@
         <v>12</v>
       </c>
       <c r="G151" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H151" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="I151" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5514,7 +5478,7 @@
         <v>37</v>
       </c>
       <c r="G152" t="s">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="H152" t="s">
         <v>12</v>
@@ -5543,7 +5507,7 @@
         <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H153" t="s">
         <v>12</v>
@@ -5572,13 +5536,13 @@
         <v>49</v>
       </c>
       <c r="G154" t="s">
-        <v>318</v>
+        <v>105</v>
       </c>
       <c r="H154" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="I154" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5601,13 +5565,13 @@
         <v>55</v>
       </c>
       <c r="G155" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H155" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="I155" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5630,13 +5594,13 @@
         <v>61</v>
       </c>
       <c r="G156" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I156" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5659,7 +5623,7 @@
         <v>66</v>
       </c>
       <c r="G157" t="s">
-        <v>319</v>
+        <v>105</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
@@ -5688,13 +5652,13 @@
         <v>72</v>
       </c>
       <c r="G158" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H158" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="I158" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5717,13 +5681,13 @@
         <v>78</v>
       </c>
       <c r="G159" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="H159" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I159" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5746,13 +5710,13 @@
         <v>84</v>
       </c>
       <c r="G160" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H160" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="I160" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5775,7 +5739,7 @@
         <v>90</v>
       </c>
       <c r="G161" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H161" t="s">
         <v>12</v>
@@ -5786,7 +5750,7 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5838,13 +5802,13 @@
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H165" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I165" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5867,7 +5831,7 @@
         <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H166" t="s">
         <v>12</v>
@@ -5896,7 +5860,7 @@
         <v>12</v>
       </c>
       <c r="G167" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H167" t="s">
         <v>12</v>
@@ -5925,7 +5889,7 @@
         <v>12</v>
       </c>
       <c r="G168" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H168" t="s">
         <v>12</v>
@@ -5954,13 +5918,13 @@
         <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H169" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I169" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5983,7 +5947,7 @@
         <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H170" t="s">
         <v>12</v>
@@ -6012,7 +5976,7 @@
         <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H171" t="s">
         <v>12</v>
@@ -6041,13 +6005,13 @@
         <v>49</v>
       </c>
       <c r="G172" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H172" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I172" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6070,13 +6034,13 @@
         <v>55</v>
       </c>
       <c r="G173" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H173" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I173" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6099,13 +6063,13 @@
         <v>61</v>
       </c>
       <c r="G174" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H174" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I174" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6128,7 +6092,7 @@
         <v>66</v>
       </c>
       <c r="G175" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H175" t="s">
         <v>12</v>
@@ -6157,13 +6121,13 @@
         <v>72</v>
       </c>
       <c r="G176" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H176" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="I176" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6186,13 +6150,13 @@
         <v>78</v>
       </c>
       <c r="G177" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H177" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="I177" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6215,13 +6179,13 @@
         <v>84</v>
       </c>
       <c r="G178" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H178" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="I178" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6244,7 +6208,7 @@
         <v>90</v>
       </c>
       <c r="G179" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H179" t="s">
         <v>12</v>
@@ -6255,7 +6219,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6307,13 +6271,13 @@
         <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H183" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I183" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6336,13 +6300,13 @@
         <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H184" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="I184" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6365,13 +6329,13 @@
         <v>12</v>
       </c>
       <c r="G185" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H185" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I185" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6394,13 +6358,13 @@
         <v>12</v>
       </c>
       <c r="G186" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H186" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="I186" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6423,13 +6387,13 @@
         <v>12</v>
       </c>
       <c r="G187" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H187" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="I187" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6452,13 +6416,13 @@
         <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H188" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="I188" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6481,13 +6445,13 @@
         <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="H189" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="I189" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6510,13 +6474,13 @@
         <v>49</v>
       </c>
       <c r="G190" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="H190" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="I190" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6539,13 +6503,13 @@
         <v>55</v>
       </c>
       <c r="G191" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="H191" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="I191" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6568,13 +6532,13 @@
         <v>61</v>
       </c>
       <c r="G192" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="H192" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="I192" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6597,13 +6561,13 @@
         <v>66</v>
       </c>
       <c r="G193" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H193" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="I193" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6626,13 +6590,13 @@
         <v>72</v>
       </c>
       <c r="G194" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H194" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="I194" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6655,13 +6619,13 @@
         <v>78</v>
       </c>
       <c r="G195" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H195" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="I195" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6684,13 +6648,13 @@
         <v>84</v>
       </c>
       <c r="G196" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H196" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I196" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6713,13 +6677,13 @@
         <v>90</v>
       </c>
       <c r="G197" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H197" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I197" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
